--- a/data/trans_dic/P54_A_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por contagiarse de coronavirus o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por contagiarse de coronavirus o ya le ha ocurrido (tasa de respuesta: 97,67%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>95,28%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>92,43%</t>
+          <t>95,97%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>31,46%</t>
+          <t>29,37%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>92,67%</t>
+          <t>96,29%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>95,77%</t>
+          <t>94,4%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>24,01%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>93,88%</t>
+          <t>98,07%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>94,23%</t>
+          <t>95,15%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,37; 38,29</t>
+          <t>7,32; 32,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>89,02; 98,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>80,65; 97,12</t>
+          <t>86,59; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,15; 42,45</t>
+          <t>17,72; 47,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>81,45; 97,38</t>
+          <t>87,59; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,7; 98,36</t>
+          <t>85,58; 98,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,91; 36,99</t>
+          <t>15,09; 35,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>87,19; 96,73</t>
+          <t>93,3; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>88,93; 97,02</t>
+          <t>88,73; 98,18</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>39,21%</t>
+          <t>46,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>87,1%</t>
+          <t>85,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>92,7%</t>
+          <t>94,52%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>38,62%</t>
+          <t>37,28%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>92,38%</t>
+          <t>94,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>94,82%</t>
+          <t>97,46%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>38,91%</t>
+          <t>41,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>89,82%</t>
+          <t>89,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>93,76%</t>
+          <t>95,99%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,0; 45,79</t>
+          <t>37,89; 54,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>78,04; 91,91</t>
+          <t>66,99; 91,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,12; 96,08</t>
+          <t>89,71; 97,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,13; 44,68</t>
+          <t>30,19; 45,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>89,1; 95,09</t>
+          <t>89,59; 97,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>88,99; 97,47</t>
+          <t>92,95; 99,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,65; 43,14</t>
+          <t>36,46; 47,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>85,17; 92,41</t>
+          <t>80,85; 93,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>90,16; 95,84</t>
+          <t>93,33; 97,98</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>49,55%</t>
+          <t>52,68%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>88,08%</t>
+          <t>86,45%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>92,51%</t>
+          <t>89,8%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>60,02%</t>
+          <t>59,5%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,61%</t>
+          <t>93,67%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,48%</t>
+          <t>97,23%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>55,16%</t>
+          <t>56,45%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>91,6%</t>
+          <t>90,51%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>94,64%</t>
+          <t>93,9%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>42,44; 57,13</t>
+          <t>43,32; 62,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>80,55; 92,44</t>
+          <t>76,68; 92,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>84,82; 96,1</t>
+          <t>76,25; 95,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>53,88; 66,85</t>
+          <t>51,64; 66,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>90,68; 97,02</t>
+          <t>87,72; 96,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>93,45; 98,4</t>
+          <t>92,74; 99,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>50,28; 60,09</t>
+          <t>50,21; 62,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>87,81; 94,22</t>
+          <t>84,63; 93,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>90,79; 96,71</t>
+          <t>87,28; 96,58</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>40,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>88,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>92,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>45,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>93,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>43,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>91,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>94,13%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,172 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36,64; 45,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>84,34; 91,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>88,62; 95,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>41,43; 49,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,77; 95,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,64; 97,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>40,4; 46,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>88,67; 92,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>92,17; 95,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>45,17%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>87,76%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>92,98%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>46,0%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>94,27%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>96,95%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>45,61%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>91,24%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>95,06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>38,88; 51,41</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>79,04; 92,38</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>88,11; 95,81</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>40,9; 51,08</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>91,28; 96,31</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>94,59; 98,39</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>41,44; 49,82</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>86,78; 93,62</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>92,52; 96,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -1072,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por contagiarse de coronavirus o ya le ha ocurrido (tasa de respuesta: 97,67%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>17635</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>128885</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>99360</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>27653</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>135482</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>107271</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>45287</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>264367</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>206631</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6909; 30895</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>89642; 103528</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>16690; 44613</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>123234; 140696</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>97246; 111916</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>28457; 66422</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>251529; 269581</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>192692; 213204</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>316.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>153422</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>362842</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>355651</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>128271</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>428054</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>367179</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>281693</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>790896</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>722830</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>124913; 179748</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>285669; 390653</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>337539; 367180</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>103906; 155342</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>407098; 441727</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>350175; 373218</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>245700; 318906</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>712122; 823804</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>702790; 737768</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>275.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>144030</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>287784</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>251275</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>201249</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>401269</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>335123</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>345279</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>689053</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>586398</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>118441; 169710</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>255260; 309020</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>213363; 266014</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>174665; 226354</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>375810; 414189</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>319635; 341830</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>307076; 380272</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>644310; 715219</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>545077; 603116</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>282.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>373.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>385.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>305.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>655.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>675.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>315086</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>779511</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>706286</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>357173</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>964805</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>809573</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>672259</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1744316</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1515859</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>271209; 358627</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>702016; 820569</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>669299; 727797</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>317550; 396610</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>934286; 985768</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>789871; 821545</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>610827; 734337</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1659009; 1789792</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1475406; 1540325</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>